--- a/docs/Cards.xlsx
+++ b/docs/Cards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t xml:space="preserve">Card_Name</t>
   </si>
@@ -31,15 +31,15 @@
     <t xml:space="preserve">Card_Rarity</t>
   </si>
   <si>
+    <t xml:space="preserve">Card_Edition</t>
+  </si>
+  <si>
     <t xml:space="preserve">Card_Set</t>
   </si>
   <si>
     <t xml:space="preserve">Card_Index</t>
   </si>
   <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
@@ -52,16 +52,49 @@
     <t xml:space="preserve">Monster</t>
   </si>
   <si>
-    <t xml:space="preserve">Secret</t>
+    <t xml:space="preserve">Ultra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Edition</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">IOC</t>
   </si>
   <si>
-    <t xml:space="preserve">EN026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Sold</t>
+    <t xml:space="preserve">025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsold</t>
   </si>
   <si>
     <t xml:space="preserve">Chaos Sorcerer</t>
@@ -70,7 +103,7 @@
     <t xml:space="preserve">Common</t>
   </si>
   <si>
-    <t xml:space="preserve">EN087</t>
+    <t xml:space="preserve">023</t>
   </si>
   <si>
     <t xml:space="preserve">Raigeki</t>
@@ -85,35 +118,24 @@
     <t xml:space="preserve">LOB</t>
   </si>
   <si>
-    <t xml:space="preserve">EN025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harpie's Feather Duster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prismatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dark Hole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN035</t>
+    <t xml:space="preserve">E042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,6 +166,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,13 +224,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -214,44 +262,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="20.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -271,118 +321,92 @@
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G5" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
